--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\23.Adorbot\microservices\microservice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE0B0A-93C1-4424-ABDC-8AC00C9ACC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005AB63-761C-43BF-9A07-962C2B1E7524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8404DDD0-887D-42C7-83DE-BEE8DABD57B1}"/>
   </bookViews>
@@ -36,115 +36,229 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t xml:space="preserve"> What ADOR welding electrode should be used for welding in an acidic environment?</t>
-  </si>
-  <si>
-    <t>How do I select the right ADOR electrode for welding stainless steel in food-grade applications?</t>
-  </si>
-  <si>
-    <t>Which ADOR electrode is recommended for welding heat-resistant alloys?</t>
-  </si>
-  <si>
-    <t>Which ADOR electrode is best for welding high-wear surfaces?</t>
-  </si>
-  <si>
-    <t>What ADOR welding consumable is recommended for welding on oily or contaminated surfaces?</t>
-  </si>
-  <si>
-    <t>Which ADOR electrode should be used for welding in offshore or marine environments?</t>
-  </si>
-  <si>
-    <t>How to select the right ADOR welding consumable for welding dissimilar metals?</t>
-  </si>
-  <si>
-    <t>Which ADOR welding electrode is suitable for welding in a high-vibration environment?</t>
-  </si>
-  <si>
-    <t>What ADOR electrode is recommended for welding in an environment with high levels of radiation?</t>
-  </si>
-  <si>
-    <t>What is the appropriate ADOR electrode for welding in an automotive manufacturing application?</t>
-  </si>
-  <si>
-    <t>Which ADOR consumable should be used for welding on high-strength low-alloy (HSLA) steel?</t>
-  </si>
-  <si>
-    <t>Which ADOR welding consumable should be used for welding titanium alloys?</t>
-  </si>
-  <si>
-    <t>What ADOR electrode is best for welding in an aerospace application?</t>
-  </si>
-  <si>
-    <t>Which ADOR consumable is recommended for welding in a nuclear facility?</t>
-  </si>
-  <si>
-    <t>How do I choose the right ADOR welding consumables for welding in a high-pressure environment?</t>
-  </si>
-  <si>
-    <t>Which ADOR electrode is best for welding on aged or corroded materials?</t>
-  </si>
-  <si>
-    <t>What is the recommended ADOR welding electrode for high-strength steel applications?</t>
-  </si>
-  <si>
-    <t>What ADOR welding consumable is best for welding stainless steel to carbon steel?</t>
-  </si>
-  <si>
-    <t>Which ADOR electrode should be used for welding in a high-temperature environment?</t>
-  </si>
-  <si>
-    <t>What is the suitable ADOR electrode for welding galvanized steel?</t>
-  </si>
-  <si>
-    <t>Which ADOR electrode is recommended for underwater welding applications?</t>
-  </si>
-  <si>
-    <t>How to choose the right ADOR electrode for welding cast iron?</t>
-  </si>
-  <si>
-    <t>Which ADOR welding electrode is best for structural steel fabrication?</t>
-  </si>
-  <si>
-    <t>What ADOR product is suitable for welding aluminium alloys?</t>
-  </si>
-  <si>
-    <t>How to select the appropriate ADOR flux-cored wire for shipbuilding</t>
-  </si>
-  <si>
-    <t>What ADOR electrode would you recommend for welding in a cryogenic environment?</t>
-  </si>
-  <si>
-    <t>Which ADOR welding consumable is best for pipeline welding?</t>
-  </si>
-  <si>
-    <t>What is the ideal ADOR electrode for welding pressure vessels?</t>
-  </si>
-  <si>
-    <t>Which ADOR consumable is recommended for welding nickel-based alloys?</t>
-  </si>
-  <si>
-    <t>What ADOR product should be used for welding in a highly corrosive</t>
-  </si>
-  <si>
-    <t>Which ADOR electrode is best for hard-facing applications on mining equipment?</t>
+    <t>What are the various types of welding consumables does Ador Welding offer?</t>
+  </si>
+  <si>
+    <t>Does Ador Welding sell their welding consumables directly to customers?</t>
+  </si>
+  <si>
+    <t>Who are the major customers of Ador Welding?</t>
+  </si>
+  <si>
+    <t>Does Ador Welding have third-party approvals for their welding consumables?</t>
+  </si>
+  <si>
+    <t>What is the lead time of delivery for welding consumables?</t>
+  </si>
+  <si>
+    <t>Which standards are referred for quality check of welding consumables?</t>
+  </si>
+  <si>
+    <t>Does Ador Welding provide technical support to their customers for welding consumables?</t>
+  </si>
+  <si>
+    <t>What are the various processes for welding?</t>
+  </si>
+  <si>
+    <t>How to select a welding process for a welding application?</t>
+  </si>
+  <si>
+    <t>How to select a welding consumable for any welding process?</t>
+  </si>
+  <si>
+    <t>What is the weight of a single electrode?</t>
+  </si>
+  <si>
+    <t>How many pieces of electrodes are supplied in 1 kg?</t>
+  </si>
+  <si>
+    <t>What are the various sizes of electrodes Ador Welding offers?</t>
+  </si>
+  <si>
+    <t>Do you provide any customised welding electrode?</t>
+  </si>
+  <si>
+    <t>What is the weight of the welding electrode box?</t>
+  </si>
+  <si>
+    <t>What is the weight of spools/packaging for GMAW Wires?</t>
+  </si>
+  <si>
+    <t>What are the different types of GMAW Wire Ador supplies?</t>
+  </si>
+  <si>
+    <t>What are the different sizes of GMAW Wire Ador supplies?</t>
+  </si>
+  <si>
+    <t>What are the different types &amp; sizes of FCAW Wire Ador supplies?</t>
+  </si>
+  <si>
+    <t>Do you provide vacuum packing for GMAW/FCAW spools?</t>
+  </si>
+  <si>
+    <t>Do ADOR supplies Stainless Steel consumables?</t>
+  </si>
+  <si>
+    <t>What is the ADOR range of various Stainless Steel consumable?</t>
+  </si>
+  <si>
+    <t>Do ADOR supplies any Non-Ferrous consumables?</t>
+  </si>
+  <si>
+    <t>What are the ADOR range of various Non-Ferrous consumable?</t>
+  </si>
+  <si>
+    <t>Do ADOR supplies any Hard-Surfacing consumables?</t>
+  </si>
+  <si>
+    <t>What are the ADOR range of various Hard-Surfacing consumable?</t>
+  </si>
+  <si>
+    <t>What is the MOQ for supply of welding consumable?</t>
+  </si>
+  <si>
+    <t>What is your standard packaging for welding consumables?</t>
+  </si>
+  <si>
+    <t>Do you supply electrodes in pallet packing?</t>
+  </si>
+  <si>
+    <t>What is the USP of Ador Welding products?</t>
+  </si>
+  <si>
+    <t>What is the shelf life of Welding consumables?</t>
+  </si>
+  <si>
+    <t>What cares are required for storing of welding consumables?</t>
+  </si>
+  <si>
+    <t>Does Ador welding supply products online?</t>
+  </si>
+  <si>
+    <t>How to get ADOR products price and availability?</t>
+  </si>
+  <si>
+    <t>How to contact ADOR welding for any enquiry?</t>
+  </si>
+  <si>
+    <t>Whom to contact in ADOR welding for any quality issue?</t>
+  </si>
+  <si>
+    <t>Can we get Test Certificate from ADOR welding for each supply?</t>
+  </si>
+  <si>
+    <t>Whether Test Certificate can be downloaded from ADOR welding web site?</t>
+  </si>
+  <si>
+    <t>How can we check for a genuine ADOR welding product?</t>
+  </si>
+  <si>
+    <t>To whom shall be complained about any doubt on authenticity of product.</t>
+  </si>
+  <si>
+    <t>What are the different varieties of SMAW electrodes?</t>
+  </si>
+  <si>
+    <t>How does the coating on a welding electrode affect its arc stability and penetration?</t>
+  </si>
+  <si>
+    <t>What is the significance of the AWS classification for welding electrodes?</t>
+  </si>
+  <si>
+    <t>How do you select the appropriate electrode diameter for a specific welding application?</t>
+  </si>
+  <si>
+    <t>What are the differences between E7018 and E6010 electrodes in terms of their applications and characteristics?</t>
+  </si>
+  <si>
+    <t>How does the moisture content in electrodes affect weld quality, and how can it be controlled?</t>
+  </si>
+  <si>
+    <t>What are low hydrogen electrodes, and why are they used in critical applications?</t>
+  </si>
+  <si>
+    <t>How do different alloying elements in electrodes affect the mechanical properties of the weld?</t>
+  </si>
+  <si>
+    <t>What factors should be considered when storing and handling welding electrodes?</t>
+  </si>
+  <si>
+    <t>How does the welding position (e.g., flat, vertical, overhead) influence the choice of electrode?</t>
+  </si>
+  <si>
+    <t>What are the common defects associated with the improper use of welding electrodes?</t>
+  </si>
+  <si>
+    <t>How does the type of base material affect the selection of the welding electrode?</t>
+  </si>
+  <si>
+    <t>What are the safety considerations when using and handling welding electrodes?</t>
+  </si>
+  <si>
+    <t>How do you determine the appropriate amperage and voltage settings for a given electrode?</t>
+  </si>
+  <si>
+    <t>What are the advantages of using cellulose-coated electrodes?</t>
+  </si>
+  <si>
+    <t>What are the signs of a low-quality welding electrode?</t>
+  </si>
+  <si>
+    <t>What are the environmental considerations for using different types of welding electrodes?</t>
+  </si>
+  <si>
+    <t>How do you perform a compatibility check between welding electrodes and base materials?</t>
+  </si>
+  <si>
+    <t>What are the best practices for maintaining the quality of welding electrodes during storage?</t>
+  </si>
+  <si>
+    <t>How do you troubleshoot common issues related to welding electrodes, such as arc blow or spatter?</t>
+  </si>
+  <si>
+    <t>What are the key characteristics of a high-quality welding electrode?</t>
+  </si>
+  <si>
+    <t>How do welding electrodes affect the heat input and cooling rate during welding?</t>
+  </si>
+  <si>
+    <t>What is the impact of electrode coating composition on the slag formation and removal process?</t>
+  </si>
+  <si>
+    <t>How do you test the mechanical properties of welds made with different welding electrodes?</t>
+  </si>
+  <si>
+    <t>What are the latest advancements in welding electrode technology and their benefits?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,12 +277,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF9DF2D-C76F-4189-A98F-A7DC3A213A0F}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+      <selection activeCell="A42" sqref="A42:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,164 +650,329 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
